--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,7 +85,16 @@
     <t>Il12rb1</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.581050505421026</v>
+        <v>0.8401833333333332</v>
       </c>
       <c r="H2">
-        <v>0.581050505421026</v>
+        <v>2.52055</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,31 +555,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.959041179999081</v>
+        <v>0.1866496666666667</v>
       </c>
       <c r="N2">
-        <v>0.959041179999081</v>
+        <v>0.559949</v>
       </c>
       <c r="O2">
-        <v>0.8320371629920488</v>
+        <v>0.1052515138801798</v>
       </c>
       <c r="P2">
-        <v>0.8320371629920488</v>
+        <v>0.1052515138801798</v>
       </c>
       <c r="Q2">
-        <v>0.5572513623580432</v>
+        <v>0.1568199391055555</v>
       </c>
       <c r="R2">
-        <v>0.5572513623580432</v>
+        <v>1.41137945195</v>
       </c>
       <c r="S2">
-        <v>0.8320371629920488</v>
+        <v>0.1052515138801798</v>
       </c>
       <c r="T2">
-        <v>0.8320371629920488</v>
+        <v>0.1052515138801798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,55 +593,241 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.8401833333333332</v>
+      </c>
+      <c r="H3">
+        <v>2.52055</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.9694063333333333</v>
+      </c>
+      <c r="N3">
+        <v>2.908219</v>
+      </c>
+      <c r="O3">
+        <v>0.5466470204341869</v>
+      </c>
+      <c r="P3">
+        <v>0.546647020434187</v>
+      </c>
+      <c r="Q3">
+        <v>0.8144790444944442</v>
+      </c>
+      <c r="R3">
+        <v>7.330311400449999</v>
+      </c>
+      <c r="S3">
+        <v>0.5466470204341869</v>
+      </c>
+      <c r="T3">
+        <v>0.546647020434187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.581050505421026</v>
-      </c>
-      <c r="H3">
-        <v>0.581050505421026</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.193601060823816</v>
-      </c>
-      <c r="N3">
-        <v>0.193601060823816</v>
-      </c>
-      <c r="O3">
-        <v>0.1679628370079513</v>
-      </c>
-      <c r="P3">
-        <v>0.1679628370079513</v>
-      </c>
-      <c r="Q3">
-        <v>0.1124919942417251</v>
-      </c>
-      <c r="R3">
-        <v>0.1124919942417251</v>
-      </c>
-      <c r="S3">
-        <v>0.1679628370079513</v>
-      </c>
-      <c r="T3">
-        <v>0.1679628370079513</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.8401833333333332</v>
+      </c>
+      <c r="H4">
+        <v>2.52055</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.112113</v>
+      </c>
+      <c r="N4">
+        <v>0.336339</v>
+      </c>
+      <c r="O4">
+        <v>0.06322038065421277</v>
+      </c>
+      <c r="P4">
+        <v>0.06322038065421277</v>
+      </c>
+      <c r="Q4">
+        <v>0.09419547404999999</v>
+      </c>
+      <c r="R4">
+        <v>0.8477592664499999</v>
+      </c>
+      <c r="S4">
+        <v>0.06322038065421277</v>
+      </c>
+      <c r="T4">
+        <v>0.06322038065421277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8401833333333332</v>
+      </c>
+      <c r="H5">
+        <v>2.52055</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.30418</v>
+      </c>
+      <c r="N5">
+        <v>0.91254</v>
+      </c>
+      <c r="O5">
+        <v>0.1715267220340053</v>
+      </c>
+      <c r="P5">
+        <v>0.1715267220340054</v>
+      </c>
+      <c r="Q5">
+        <v>0.2555669663333333</v>
+      </c>
+      <c r="R5">
+        <v>2.300102697</v>
+      </c>
+      <c r="S5">
+        <v>0.1715267220340053</v>
+      </c>
+      <c r="T5">
+        <v>0.1715267220340054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8401833333333332</v>
+      </c>
+      <c r="H6">
+        <v>2.52055</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.201019</v>
+      </c>
+      <c r="N6">
+        <v>0.603057</v>
+      </c>
+      <c r="O6">
+        <v>0.1133543629974151</v>
+      </c>
+      <c r="P6">
+        <v>0.1133543629974151</v>
+      </c>
+      <c r="Q6">
+        <v>0.1688928134833333</v>
+      </c>
+      <c r="R6">
+        <v>1.52003532135</v>
+      </c>
+      <c r="S6">
+        <v>0.1133543629974151</v>
+      </c>
+      <c r="T6">
+        <v>0.1133543629974151</v>
       </c>
     </row>
   </sheetData>
